--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Crec.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Crec.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E027565-0898-EC48-9542-5DD2180223C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B85872-7F01-5C45-8BF9-5E71D828171E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="crec_persons" sheetId="1" r:id="rId1"/>
-    <sheet name="crec_lookup" sheetId="2" r:id="rId2"/>
+    <sheet name="table_definitions" sheetId="3" r:id="rId1"/>
+    <sheet name="crec_persons" sheetId="1" r:id="rId2"/>
+    <sheet name="crec_lookup" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crec_persons!$A$1:$P$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">crec_persons!$A$1:$P$82</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="128">
   <si>
     <t>table_name</t>
   </si>
@@ -460,12 +461,48 @@
   <si>
     <t>not mapped</t>
   </si>
+  <si>
+    <t>mapping_file_name</t>
+  </si>
+  <si>
+    <t>entity_name</t>
+  </si>
+  <si>
+    <t>required_entities</t>
+  </si>
+  <si>
+    <t>destination_table_name</t>
+  </si>
+  <si>
+    <t>table_type</t>
+  </si>
+  <si>
+    <t>source_table_name</t>
+  </si>
+  <si>
+    <t>casrec_conditions</t>
+  </si>
+  <si>
+    <t>source_table_additional_columns</t>
+  </si>
+  <si>
+    <t>crec_persons</t>
+  </si>
+  <si>
+    <t>crec</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -507,6 +544,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -576,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -609,6 +652,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,13 +868,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CC95F4-02E8-0A4B-AAFA-EC43C582E824}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
@@ -4113,7 +4219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4138,7 +4244,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>0</v>
       </c>
@@ -4150,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -4162,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -4174,7 +4280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>3</v>
       </c>
